--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_ObjectProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_ObjectProfile_Regression_001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0DB02B-D107-42D6-B5D1-2EB89D0D0CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC928425-B3FF-40FB-A465-5964B6C2788E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{700E182A-B159-4886-9E6C-1C79495AA709}"/>
+    <workbookView xWindow="420" yWindow="280" windowWidth="18780" windowHeight="9920" xr2:uid="{700E182A-B159-4886-9E6C-1C79495AA709}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
